--- a/Doc/3bits的报告及PPT/分区赛报告-PPT（无视频）/分区赛时间节点及各项事务.xlsx
+++ b/Doc/3bits的报告及PPT/分区赛报告-PPT（无视频）/分区赛时间节点及各项事务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>arm杯</t>
   </si>
@@ -24,9 +24,6 @@
     <t>讲解3分钟，作品演示和提问12分钟（共15分钟）</t>
   </si>
   <si>
-    <t>arm杯可以申请线上</t>
-  </si>
-  <si>
     <t>参赛人员携带</t>
   </si>
   <si>
@@ -42,21 +39,12 @@
     <t>是否完成</t>
   </si>
   <si>
-    <t>问题</t>
-  </si>
-  <si>
     <t>参赛回执</t>
   </si>
   <si>
     <t>7.9  24：00之前</t>
   </si>
   <si>
-    <t>有成员去实习了，没法儿参赛怎么办</t>
-  </si>
-  <si>
-    <t>没关系，不要求所有人都到</t>
-  </si>
-  <si>
     <t>作品材料提交</t>
   </si>
   <si>
@@ -72,6 +60,9 @@
     <t>作品海报</t>
   </si>
   <si>
+    <t>现场参赛</t>
+  </si>
+  <si>
     <t>参赛报到（大连理工开发区校区），粘贴海报</t>
   </si>
   <si>
@@ -94,6 +85,12 @@
   </si>
   <si>
     <t>7.16整天</t>
+  </si>
+  <si>
+    <t>订住的地方</t>
+  </si>
+  <si>
+    <t>车票</t>
   </si>
 </sst>
 </file>
@@ -106,14 +103,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,12 +256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -571,48 +567,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,101 +621,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +720,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,9 +1088,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G6:M21"/>
+  <dimension ref="G6:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1092,25 +1106,22 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="28.8" spans="7:8">
+    <row r="6" ht="28.8" spans="7:10">
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="7:13">
-      <c r="G8" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13">
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1126,159 +1137,153 @@
     </row>
     <row r="10" spans="7:13">
       <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="7:13">
+      <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" ht="43.2" spans="7:13">
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="7:13">
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="7:13">
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="7:13">
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+    <row r="14" spans="8:13">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="7:13">
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+    <row r="15" spans="8:13">
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="7:13">
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+    <row r="16" spans="8:13">
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="7:13">
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" ht="43.2" spans="7:13">
-      <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="18" ht="28.8" spans="8:13">
       <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="7:13">
-      <c r="G19" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="19" ht="28.8" spans="8:13">
       <c r="H19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" ht="28.8" spans="7:13">
-      <c r="G20" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="20" ht="28.8" spans="8:13">
       <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="7:13">
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="21" spans="8:13">
       <c r="H21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
